--- a/WHO_datasets/GW_five_combined_subgroups.xlsx
+++ b/WHO_datasets/GW_five_combined_subgroups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chriscallahan/Desktop/2022_Fall_classes/Intro_to_DS/Final_project/DataScience_Final_Project/WHO_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94795360-BBAD-E24D-9194-BCFE07BA3922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA20B99-E0D4-984C-ADB6-19B8C6BF225E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3396259B-E87F-2345-BC4F-776D4A0E44DC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18980" xr2:uid="{3396259B-E87F-2345-BC4F-776D4A0E44DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>Haiti</t>
   </si>
   <si>
-    <t>Republic of Moldova</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Avg estimate</t>
+  </si>
+  <si>
+    <t>Moldova</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:F550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="5"/>
     </row>
@@ -595,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="4">
         <v>-2.65</v>
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4">
         <v>-2.5</v>
@@ -773,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4">
         <v>-2.4000000000000004</v>
@@ -862,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="4">
         <v>-2.35</v>
@@ -951,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="4">
         <v>-2.25</v>
@@ -1040,7 +1040,7 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="4">
         <v>-2.15</v>
@@ -1129,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" s="4">
         <v>-2.0499999999999998</v>
@@ -1218,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" s="4">
         <v>-1.9500000000000002</v>
@@ -1307,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46" s="4">
         <v>-1.9</v>
@@ -1396,7 +1396,7 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="4">
         <v>-1.8</v>
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" s="4">
         <v>-1.7</v>
@@ -1574,7 +1574,7 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="4">
         <v>-1.65</v>
@@ -1663,7 +1663,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66" s="4">
         <v>-1.6</v>
@@ -1752,7 +1752,7 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71" s="4">
         <v>-1.5499999999999998</v>
@@ -1841,7 +1841,7 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76" s="4">
         <v>-1.4500000000000002</v>
@@ -1912,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E80" s="4">
         <v>-1.4500000000000002</v>
@@ -1983,7 +1983,7 @@
         <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84" s="4">
         <v>-1.35</v>
@@ -2054,7 +2054,7 @@
         <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E88" s="4">
         <v>-1.35</v>
@@ -2107,7 +2107,7 @@
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E91" s="4">
         <v>-1.25</v>
@@ -2178,7 +2178,7 @@
         <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E95" s="4">
         <v>-2.95</v>
@@ -2249,7 +2249,7 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E99" s="4">
         <v>-2.8</v>
@@ -2320,7 +2320,7 @@
         <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E103" s="4">
         <v>-2.65</v>
@@ -2391,7 +2391,7 @@
         <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E107" s="4">
         <v>-2.5499999999999998</v>
@@ -2462,7 +2462,7 @@
         <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E111" s="4">
         <v>-2.35</v>
@@ -2533,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E115" s="4">
         <v>-2.25</v>
@@ -2604,7 +2604,7 @@
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E119" s="4">
         <v>-2.15</v>
@@ -2675,7 +2675,7 @@
         <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E123" s="4">
         <v>-2</v>
@@ -2746,7 +2746,7 @@
         <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E127" s="4">
         <v>-1.9</v>
@@ -2817,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E131" s="4">
         <v>-1.85</v>
@@ -2888,7 +2888,7 @@
         <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E135" s="4">
         <v>-1.75</v>
@@ -2959,7 +2959,7 @@
         <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E139" s="4">
         <v>-1.65</v>
@@ -3030,7 +3030,7 @@
         <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E143" s="4">
         <v>-2.0499999999999998</v>
@@ -3048,7 +3048,7 @@
         <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E144" s="4">
         <v>-1.6</v>
@@ -3119,7 +3119,7 @@
         <v>11</v>
       </c>
       <c r="D148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E148" s="4">
         <v>-1.5499999999999998</v>
@@ -3190,7 +3190,7 @@
         <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E152" s="4">
         <v>-1.4500000000000002</v>
@@ -3243,7 +3243,7 @@
         <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E155" s="4">
         <v>-1.4500000000000002</v>
@@ -3296,7 +3296,7 @@
         <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E158" s="4">
         <v>-1.35</v>
@@ -3349,7 +3349,7 @@
         <v>11</v>
       </c>
       <c r="D161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E161" s="4">
         <v>-1.35</v>
@@ -3384,7 +3384,7 @@
         <v>11</v>
       </c>
       <c r="D163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E163" s="4">
         <v>-1.2999999999999998</v>
@@ -3473,7 +3473,7 @@
         <v>11</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E168" s="4">
         <v>-12.8</v>
@@ -3562,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="D173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E173" s="4">
         <v>-12.2</v>
@@ -3651,7 +3651,7 @@
         <v>11</v>
       </c>
       <c r="D178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E178" s="4">
         <v>-11.5</v>
@@ -3740,7 +3740,7 @@
         <v>11</v>
       </c>
       <c r="D183" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E183" s="4">
         <v>-11.65</v>
@@ -3758,7 +3758,7 @@
         <v>11</v>
       </c>
       <c r="D184" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E184" s="4">
         <v>-10.850000000000001</v>
@@ -3847,7 +3847,7 @@
         <v>11</v>
       </c>
       <c r="D189" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E189" s="4">
         <v>-10.25</v>
@@ -3936,7 +3936,7 @@
         <v>11</v>
       </c>
       <c r="D194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E194" s="4">
         <v>-9.6999999999999993</v>
@@ -4025,7 +4025,7 @@
         <v>11</v>
       </c>
       <c r="D199" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E199" s="4">
         <v>-9.15</v>
@@ -4114,7 +4114,7 @@
         <v>11</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E204" s="4">
         <v>-8.65</v>
@@ -4203,7 +4203,7 @@
         <v>11</v>
       </c>
       <c r="D209" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E209" s="4">
         <v>-8.1999999999999993</v>
@@ -4292,7 +4292,7 @@
         <v>11</v>
       </c>
       <c r="D214" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E214" s="4">
         <v>-9.8500000000000014</v>
@@ -4310,7 +4310,7 @@
         <v>11</v>
       </c>
       <c r="D215" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E215" s="4">
         <v>-7.75</v>
@@ -4399,7 +4399,7 @@
         <v>11</v>
       </c>
       <c r="D220" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E220" s="4">
         <v>-7.35</v>
@@ -4488,7 +4488,7 @@
         <v>11</v>
       </c>
       <c r="D225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E225" s="4">
         <v>-6.95</v>
@@ -4577,7 +4577,7 @@
         <v>11</v>
       </c>
       <c r="D230" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E230" s="4">
         <v>-6.6</v>
@@ -4666,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="D235" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E235" s="4">
         <v>-6.25</v>
@@ -4755,7 +4755,7 @@
         <v>11</v>
       </c>
       <c r="D240" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E240" s="4">
         <v>-7.45</v>
@@ -4773,7 +4773,7 @@
         <v>11</v>
       </c>
       <c r="D241" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E241" s="4">
         <v>-5.85</v>
@@ -4844,7 +4844,7 @@
         <v>11</v>
       </c>
       <c r="D245" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E245" s="4">
         <v>-5.6</v>
@@ -4915,7 +4915,7 @@
         <v>11</v>
       </c>
       <c r="D249" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E249" s="4">
         <v>-5.3000000000000007</v>
@@ -4986,7 +4986,7 @@
         <v>11</v>
       </c>
       <c r="D253" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E253" s="4">
         <v>-6.0500000000000007</v>
@@ -5004,7 +5004,7 @@
         <v>11</v>
       </c>
       <c r="D254" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E254" s="4">
         <v>-5.05</v>
@@ -5057,7 +5057,7 @@
         <v>11</v>
       </c>
       <c r="D257" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E257" s="4">
         <v>-4.8499999999999996</v>
@@ -5128,7 +5128,7 @@
         <v>11</v>
       </c>
       <c r="D261" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E261" s="4">
         <v>-9.6999999999999993</v>
@@ -5199,7 +5199,7 @@
         <v>11</v>
       </c>
       <c r="D265" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E265" s="4">
         <v>-9.3999999999999986</v>
@@ -5270,7 +5270,7 @@
         <v>11</v>
       </c>
       <c r="D269" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E269" s="4">
         <v>-9.1999999999999993</v>
@@ -5341,7 +5341,7 @@
         <v>11</v>
       </c>
       <c r="D273" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E273" s="4">
         <v>-9.6</v>
@@ -5359,7 +5359,7 @@
         <v>11</v>
       </c>
       <c r="D274" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E274" s="4">
         <v>-8.8999999999999986</v>
@@ -5430,7 +5430,7 @@
         <v>11</v>
       </c>
       <c r="D278" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E278" s="4">
         <v>-8.6999999999999993</v>
@@ -5501,7 +5501,7 @@
         <v>11</v>
       </c>
       <c r="D282" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E282" s="4">
         <v>-8.5</v>
@@ -5572,7 +5572,7 @@
         <v>11</v>
       </c>
       <c r="D286" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E286" s="4">
         <v>-8.25</v>
@@ -5643,7 +5643,7 @@
         <v>11</v>
       </c>
       <c r="D290" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E290" s="4">
         <v>-8.1</v>
@@ -5714,7 +5714,7 @@
         <v>11</v>
       </c>
       <c r="D294" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E294" s="4">
         <v>-20.350000000000001</v>
@@ -5785,7 +5785,7 @@
         <v>11</v>
       </c>
       <c r="D298" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E298" s="4">
         <v>-7.75</v>
@@ -5856,7 +5856,7 @@
         <v>11</v>
       </c>
       <c r="D302" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E302" s="4">
         <v>-9.3500000000000014</v>
@@ -5874,7 +5874,7 @@
         <v>11</v>
       </c>
       <c r="D303" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E303" s="4">
         <v>-7.55</v>
@@ -5945,7 +5945,7 @@
         <v>11</v>
       </c>
       <c r="D307" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E307" s="4">
         <v>-7.4</v>
@@ -6016,7 +6016,7 @@
         <v>11</v>
       </c>
       <c r="D311" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E311" s="4">
         <v>-7.1999999999999993</v>
@@ -6087,7 +6087,7 @@
         <v>11</v>
       </c>
       <c r="D315" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E315" s="4">
         <v>-7</v>
@@ -6158,7 +6158,7 @@
         <v>11</v>
       </c>
       <c r="D319" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E319" s="4">
         <v>-8.1999999999999993</v>
@@ -6176,7 +6176,7 @@
         <v>11</v>
       </c>
       <c r="D320" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E320" s="4">
         <v>-6.8000000000000007</v>
@@ -6229,7 +6229,7 @@
         <v>11</v>
       </c>
       <c r="D323" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E323" s="4">
         <v>-6.55</v>
@@ -6282,7 +6282,7 @@
         <v>11</v>
       </c>
       <c r="D326" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E326" s="4">
         <v>-6.35</v>
@@ -6335,7 +6335,7 @@
         <v>11</v>
       </c>
       <c r="D329" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E329" s="4">
         <v>-6.25</v>
@@ -6370,7 +6370,7 @@
         <v>11</v>
       </c>
       <c r="D331" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E331" s="4">
         <v>-6.05</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="332" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B332" s="2">
         <v>2002</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B333" s="3">
         <v>2002</v>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="334" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B334" s="2">
         <v>2002</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="335" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B335" s="2">
         <v>2002</v>
@@ -6441,7 +6441,7 @@
         <v>11</v>
       </c>
       <c r="D335" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E335" s="4">
         <v>-2.5999999999999996</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="336" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B336" s="2">
         <v>2003</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B337" s="3">
         <v>2003</v>
@@ -6485,7 +6485,7 @@
     </row>
     <row r="338" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B338" s="2">
         <v>2003</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="339" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B339" s="2">
         <v>2003</v>
@@ -6512,7 +6512,7 @@
         <v>11</v>
       </c>
       <c r="D339" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E339" s="4">
         <v>-2.35</v>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="340" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B340" s="2">
         <v>2004</v>
@@ -6539,7 +6539,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B341" s="3">
         <v>2004</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="342" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B342" s="2">
         <v>2004</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="343" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B343" s="2">
         <v>2004</v>
@@ -6583,7 +6583,7 @@
         <v>11</v>
       </c>
       <c r="D343" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E343" s="4">
         <v>-2.15</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="344" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B344" s="2">
         <v>2005</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B345" s="3">
         <v>2005</v>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="346" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B346" s="2">
         <v>2005</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="347" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B347" s="2">
         <v>2005</v>
@@ -6654,7 +6654,7 @@
         <v>11</v>
       </c>
       <c r="D347" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E347" s="4">
         <v>-2.5</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="348" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B348" s="2">
         <v>2005</v>
@@ -6672,7 +6672,7 @@
         <v>11</v>
       </c>
       <c r="D348" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E348" s="4">
         <v>-2</v>
@@ -6681,7 +6681,7 @@
     </row>
     <row r="349" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B349" s="2">
         <v>2006</v>
@@ -6699,7 +6699,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B350" s="3">
         <v>2006</v>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="351" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B351" s="2">
         <v>2006</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="352" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B352" s="2">
         <v>2006</v>
@@ -6743,7 +6743,7 @@
         <v>11</v>
       </c>
       <c r="D352" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E352" s="4">
         <v>-1.9</v>
@@ -6752,7 +6752,7 @@
     </row>
     <row r="353" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B353" s="2">
         <v>2007</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B354" s="3">
         <v>2007</v>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="355" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B355" s="2">
         <v>2007</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="356" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B356" s="2">
         <v>2007</v>
@@ -6814,7 +6814,7 @@
         <v>11</v>
       </c>
       <c r="D356" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E356" s="4">
         <v>-1.8</v>
@@ -6823,7 +6823,7 @@
     </row>
     <row r="357" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B357" s="2">
         <v>2008</v>
@@ -6841,7 +6841,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B358" s="3">
         <v>2008</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="359" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B359" s="2">
         <v>2008</v>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="360" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B360" s="2">
         <v>2008</v>
@@ -6885,7 +6885,7 @@
         <v>11</v>
       </c>
       <c r="D360" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E360" s="4">
         <v>-1.8</v>
@@ -6894,7 +6894,7 @@
     </row>
     <row r="361" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B361" s="2">
         <v>2009</v>
@@ -6912,7 +6912,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B362" s="3">
         <v>2009</v>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="363" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B363" s="2">
         <v>2009</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="364" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B364" s="2">
         <v>2009</v>
@@ -6956,7 +6956,7 @@
         <v>11</v>
       </c>
       <c r="D364" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E364" s="4">
         <v>-1.7</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="365" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B365" s="2">
         <v>2010</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B366" s="3">
         <v>2010</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="367" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B367" s="2">
         <v>2010</v>
@@ -7018,7 +7018,7 @@
     </row>
     <row r="368" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B368" s="2">
         <v>2010</v>
@@ -7027,7 +7027,7 @@
         <v>11</v>
       </c>
       <c r="D368" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E368" s="4">
         <v>-1.7</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="369" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B369" s="2">
         <v>2011</v>
@@ -7054,7 +7054,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B370" s="3">
         <v>2011</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="371" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B371" s="2">
         <v>2011</v>
@@ -7089,7 +7089,7 @@
     </row>
     <row r="372" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B372" s="2">
         <v>2011</v>
@@ -7098,7 +7098,7 @@
         <v>11</v>
       </c>
       <c r="D372" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E372" s="4">
         <v>-1.7</v>
@@ -7107,7 +7107,7 @@
     </row>
     <row r="373" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B373" s="2">
         <v>2012</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B374" s="3">
         <v>2012</v>
@@ -7142,7 +7142,7 @@
     </row>
     <row r="375" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B375" s="2">
         <v>2012</v>
@@ -7160,7 +7160,7 @@
     </row>
     <row r="376" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B376" s="2">
         <v>2012</v>
@@ -7169,7 +7169,7 @@
         <v>11</v>
       </c>
       <c r="D376" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E376" s="4">
         <v>-1.5499999999999998</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="377" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B377" s="2">
         <v>2012</v>
@@ -7187,7 +7187,7 @@
         <v>11</v>
       </c>
       <c r="D377" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E377" s="4">
         <v>-1.65</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="378" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B378" s="2">
         <v>2013</v>
@@ -7214,7 +7214,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B379" s="3">
         <v>2013</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="380" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B380" s="2">
         <v>2013</v>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="381" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B381" s="2">
         <v>2013</v>
@@ -7258,7 +7258,7 @@
         <v>11</v>
       </c>
       <c r="D381" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E381" s="4">
         <v>-1.6</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="382" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B382" s="2">
         <v>2014</v>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B383" s="3">
         <v>2014</v>
@@ -7302,7 +7302,7 @@
     </row>
     <row r="384" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B384" s="2">
         <v>2014</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="385" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B385" s="2">
         <v>2014</v>
@@ -7329,7 +7329,7 @@
         <v>11</v>
       </c>
       <c r="D385" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E385" s="4">
         <v>-1.6</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="386" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B386" s="2">
         <v>2015</v>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B387" s="3">
         <v>2015</v>
@@ -7373,7 +7373,7 @@
     </row>
     <row r="388" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B388" s="2">
         <v>2015</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="389" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B389" s="2">
         <v>2015</v>
@@ -7400,7 +7400,7 @@
         <v>11</v>
       </c>
       <c r="D389" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E389" s="4">
         <v>-1.5499999999999998</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="390" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B390" s="2">
         <v>2016</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B391" s="3">
         <v>2016</v>
@@ -7444,7 +7444,7 @@
     </row>
     <row r="392" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B392" s="2">
         <v>2016</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="393" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B393" s="2">
         <v>2016</v>
@@ -7471,7 +7471,7 @@
         <v>11</v>
       </c>
       <c r="D393" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E393" s="4">
         <v>-1.5499999999999998</v>
@@ -7480,7 +7480,7 @@
     </row>
     <row r="394" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B394" s="2">
         <v>2017</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B395" s="3">
         <v>2017</v>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="396" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B396" s="2">
         <v>2017</v>
@@ -7524,7 +7524,7 @@
         <v>11</v>
       </c>
       <c r="D396" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E396" s="4">
         <v>-1.5499999999999998</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="397" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B397" s="2">
         <v>2018</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B398" s="3">
         <v>2018</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="399" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B399" s="2">
         <v>2018</v>
@@ -7577,7 +7577,7 @@
         <v>11</v>
       </c>
       <c r="D399" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E399" s="4">
         <v>-1.5</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="400" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B400" s="2">
         <v>2019</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B401" s="3">
         <v>2019</v>
@@ -7621,7 +7621,7 @@
     </row>
     <row r="402" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B402" s="2">
         <v>2019</v>
@@ -7630,7 +7630,7 @@
         <v>11</v>
       </c>
       <c r="D402" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E402" s="4">
         <v>-1.4500000000000002</v>
@@ -7639,7 +7639,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B403" s="3">
         <v>2020</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="404" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B404" s="2">
         <v>2020</v>
@@ -7665,7 +7665,7 @@
         <v>11</v>
       </c>
       <c r="D404" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E404" s="4">
         <v>-1.4500000000000002</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="405" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B405" s="2">
         <v>2002</v>
@@ -7692,7 +7692,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B406" s="3">
         <v>2002</v>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="407" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B407" s="2">
         <v>2002</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="408" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B408" s="2">
         <v>2002</v>
@@ -7736,7 +7736,7 @@
         <v>11</v>
       </c>
       <c r="D408" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E408" s="4">
         <v>-3.25</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="409" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B409" s="2">
         <v>2003</v>
@@ -7763,7 +7763,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B410" s="3">
         <v>2003</v>
@@ -7780,7 +7780,7 @@
     </row>
     <row r="411" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B411" s="2">
         <v>2003</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="412" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B412" s="2">
         <v>2003</v>
@@ -7807,7 +7807,7 @@
         <v>11</v>
       </c>
       <c r="D412" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E412" s="4">
         <v>-5.05</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="413" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B413" s="2">
         <v>2003</v>
@@ -7825,7 +7825,7 @@
         <v>11</v>
       </c>
       <c r="D413" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E413" s="4">
         <v>-3.05</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="414" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B414" s="2">
         <v>2004</v>
@@ -7852,7 +7852,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B415" s="3">
         <v>2004</v>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="416" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B416" s="2">
         <v>2004</v>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="417" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B417" s="2">
         <v>2004</v>
@@ -7896,7 +7896,7 @@
         <v>11</v>
       </c>
       <c r="D417" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E417" s="4">
         <v>-2.85</v>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="418" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B418" s="2">
         <v>2005</v>
@@ -7923,7 +7923,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B419" s="3">
         <v>2005</v>
@@ -7940,7 +7940,7 @@
     </row>
     <row r="420" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B420" s="2">
         <v>2005</v>
@@ -7958,7 +7958,7 @@
     </row>
     <row r="421" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B421" s="2">
         <v>2005</v>
@@ -7967,7 +7967,7 @@
         <v>11</v>
       </c>
       <c r="D421" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E421" s="4">
         <v>-2.6</v>
@@ -7976,7 +7976,7 @@
     </row>
     <row r="422" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B422" s="2">
         <v>2006</v>
@@ -7994,7 +7994,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B423" s="3">
         <v>2006</v>
@@ -8011,7 +8011,7 @@
     </row>
     <row r="424" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B424" s="2">
         <v>2006</v>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="425" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B425" s="2">
         <v>2006</v>
@@ -8038,7 +8038,7 @@
         <v>11</v>
       </c>
       <c r="D425" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E425" s="4">
         <v>-2.4500000000000002</v>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="426" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B426" s="2">
         <v>2007</v>
@@ -8065,7 +8065,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B427" s="3">
         <v>2007</v>
@@ -8082,7 +8082,7 @@
     </row>
     <row r="428" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B428" s="2">
         <v>2007</v>
@@ -8100,7 +8100,7 @@
     </row>
     <row r="429" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B429" s="2">
         <v>2007</v>
@@ -8109,7 +8109,7 @@
         <v>11</v>
       </c>
       <c r="D429" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E429" s="4">
         <v>-2.25</v>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="430" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B430" s="2">
         <v>2008</v>
@@ -8136,7 +8136,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B431" s="3">
         <v>2008</v>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="432" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B432" s="2">
         <v>2008</v>
@@ -8171,7 +8171,7 @@
     </row>
     <row r="433" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B433" s="2">
         <v>2008</v>
@@ -8180,7 +8180,7 @@
         <v>11</v>
       </c>
       <c r="D433" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E433" s="4">
         <v>-2.1</v>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="434" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B434" s="2">
         <v>2009</v>
@@ -8207,7 +8207,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B435" s="3">
         <v>2009</v>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="436" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B436" s="2">
         <v>2009</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="437" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B437" s="2">
         <v>2009</v>
@@ -8251,7 +8251,7 @@
         <v>11</v>
       </c>
       <c r="D437" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E437" s="4">
         <v>-1.9</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="438" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B438" s="2">
         <v>2010</v>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B439" s="3">
         <v>2010</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="440" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B440" s="2">
         <v>2010</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="441" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B441" s="2">
         <v>2010</v>
@@ -8322,7 +8322,7 @@
         <v>11</v>
       </c>
       <c r="D441" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E441" s="4">
         <v>-1.7999999999999998</v>
@@ -8331,7 +8331,7 @@
     </row>
     <row r="442" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B442" s="2">
         <v>2011</v>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B443" s="3">
         <v>2011</v>
@@ -8366,7 +8366,7 @@
     </row>
     <row r="444" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B444" s="2">
         <v>2011</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="445" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B445" s="2">
         <v>2011</v>
@@ -8393,7 +8393,7 @@
         <v>11</v>
       </c>
       <c r="D445" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E445" s="4">
         <v>-1.7000000000000002</v>
@@ -8402,7 +8402,7 @@
     </row>
     <row r="446" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B446" s="2">
         <v>2012</v>
@@ -8420,7 +8420,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B447" s="3">
         <v>2012</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="448" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B448" s="2">
         <v>2012</v>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="449" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B449" s="2">
         <v>2012</v>
@@ -8464,7 +8464,7 @@
         <v>11</v>
       </c>
       <c r="D449" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E449" s="4">
         <v>-1.6</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="450" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B450" s="2">
         <v>2013</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B451" s="3">
         <v>2013</v>
@@ -8508,7 +8508,7 @@
     </row>
     <row r="452" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B452" s="2">
         <v>2013</v>
@@ -8526,7 +8526,7 @@
     </row>
     <row r="453" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B453" s="2">
         <v>2013</v>
@@ -8535,7 +8535,7 @@
         <v>11</v>
       </c>
       <c r="D453" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E453" s="4">
         <v>-2.2000000000000002</v>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="454" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B454" s="2">
         <v>2013</v>
@@ -8553,7 +8553,7 @@
         <v>11</v>
       </c>
       <c r="D454" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E454" s="4">
         <v>-1.5</v>
@@ -8562,7 +8562,7 @@
     </row>
     <row r="455" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B455" s="2">
         <v>2014</v>
@@ -8580,7 +8580,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B456" s="3">
         <v>2014</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="457" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B457" s="2">
         <v>2014</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="458" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B458" s="2">
         <v>2014</v>
@@ -8624,7 +8624,7 @@
         <v>11</v>
       </c>
       <c r="D458" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E458" s="4">
         <v>-1.4</v>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="459" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B459" s="2">
         <v>2015</v>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B460" s="3">
         <v>2015</v>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="461" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B461" s="2">
         <v>2015</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="462" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B462" s="2">
         <v>2015</v>
@@ -8695,7 +8695,7 @@
         <v>11</v>
       </c>
       <c r="D462" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E462" s="4">
         <v>-1.2999999999999998</v>
@@ -8704,7 +8704,7 @@
     </row>
     <row r="463" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B463" s="2">
         <v>2016</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B464" s="3">
         <v>2016</v>
@@ -8739,7 +8739,7 @@
     </row>
     <row r="465" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B465" s="2">
         <v>2016</v>
@@ -8757,7 +8757,7 @@
     </row>
     <row r="466" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B466" s="2">
         <v>2016</v>
@@ -8766,7 +8766,7 @@
         <v>11</v>
       </c>
       <c r="D466" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E466" s="4">
         <v>-1.2000000000000002</v>
@@ -8775,7 +8775,7 @@
     </row>
     <row r="467" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B467" s="2">
         <v>2017</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B468" s="3">
         <v>2017</v>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="469" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B469" s="2">
         <v>2017</v>
@@ -8819,7 +8819,7 @@
         <v>11</v>
       </c>
       <c r="D469" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E469" s="4">
         <v>-1.1499999999999999</v>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="470" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B470" s="2">
         <v>2018</v>
@@ -8846,7 +8846,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B471" s="3">
         <v>2018</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="472" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B472" s="2">
         <v>2018</v>
@@ -8872,7 +8872,7 @@
         <v>11</v>
       </c>
       <c r="D472" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E472" s="4">
         <v>-1.05</v>
@@ -8881,7 +8881,7 @@
     </row>
     <row r="473" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B473" s="2">
         <v>2019</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B474" s="3">
         <v>2019</v>
@@ -8916,7 +8916,7 @@
     </row>
     <row r="475" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B475" s="2">
         <v>2019</v>
@@ -8925,7 +8925,7 @@
         <v>11</v>
       </c>
       <c r="D475" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E475" s="4">
         <v>-1</v>
@@ -8934,7 +8934,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B476" s="3">
         <v>2020</v>
@@ -8951,7 +8951,7 @@
     </row>
     <row r="477" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B477" s="2">
         <v>2020</v>
@@ -8960,7 +8960,7 @@
         <v>11</v>
       </c>
       <c r="D477" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E477" s="4">
         <v>-0.95</v>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="478" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B478" s="2">
         <v>2002</v>
@@ -8987,7 +8987,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B479" s="3">
         <v>2002</v>
@@ -9004,7 +9004,7 @@
     </row>
     <row r="480" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B480" s="2">
         <v>2002</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="481" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B481" s="2">
         <v>2002</v>
@@ -9031,7 +9031,7 @@
         <v>11</v>
       </c>
       <c r="D481" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E481" s="4">
         <v>-8.5500000000000007</v>
@@ -9040,7 +9040,7 @@
     </row>
     <row r="482" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B482" s="2">
         <v>2003</v>
@@ -9058,7 +9058,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B483" s="3">
         <v>2003</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="484" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B484" s="2">
         <v>2003</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="485" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B485" s="2">
         <v>2003</v>
@@ -9102,7 +9102,7 @@
         <v>11</v>
       </c>
       <c r="D485" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E485" s="4">
         <v>-8.1</v>
@@ -9111,7 +9111,7 @@
     </row>
     <row r="486" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B486" s="2">
         <v>2004</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B487" s="3">
         <v>2004</v>
@@ -9146,7 +9146,7 @@
     </row>
     <row r="488" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B488" s="2">
         <v>2004</v>
@@ -9164,7 +9164,7 @@
     </row>
     <row r="489" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B489" s="2">
         <v>2004</v>
@@ -9173,7 +9173,7 @@
         <v>11</v>
       </c>
       <c r="D489" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E489" s="4">
         <v>-7.6999999999999993</v>
@@ -9182,7 +9182,7 @@
     </row>
     <row r="490" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B490" s="2">
         <v>2005</v>
@@ -9200,7 +9200,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B491" s="3">
         <v>2005</v>
@@ -9217,7 +9217,7 @@
     </row>
     <row r="492" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B492" s="2">
         <v>2005</v>
@@ -9235,7 +9235,7 @@
     </row>
     <row r="493" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B493" s="2">
         <v>2005</v>
@@ -9244,7 +9244,7 @@
         <v>11</v>
       </c>
       <c r="D493" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E493" s="4">
         <v>-7.3000000000000007</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="494" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B494" s="2">
         <v>2006</v>
@@ -9271,7 +9271,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B495" s="3">
         <v>2006</v>
@@ -9288,7 +9288,7 @@
     </row>
     <row r="496" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B496" s="2">
         <v>2006</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="497" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B497" s="2">
         <v>2006</v>
@@ -9315,7 +9315,7 @@
         <v>11</v>
       </c>
       <c r="D497" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E497" s="4">
         <v>-7.75</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="498" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B498" s="2">
         <v>2006</v>
@@ -9333,7 +9333,7 @@
         <v>11</v>
       </c>
       <c r="D498" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E498" s="4">
         <v>-6.9</v>
@@ -9342,7 +9342,7 @@
     </row>
     <row r="499" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B499" s="2">
         <v>2007</v>
@@ -9360,7 +9360,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B500" s="3">
         <v>2007</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="501" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B501" s="2">
         <v>2007</v>
@@ -9395,7 +9395,7 @@
     </row>
     <row r="502" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B502" s="2">
         <v>2007</v>
@@ -9404,7 +9404,7 @@
         <v>11</v>
       </c>
       <c r="D502" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E502" s="4">
         <v>-6.55</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="503" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B503" s="2">
         <v>2008</v>
@@ -9431,7 +9431,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B504" s="3">
         <v>2008</v>
@@ -9448,7 +9448,7 @@
     </row>
     <row r="505" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B505" s="2">
         <v>2008</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="506" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B506" s="2">
         <v>2008</v>
@@ -9475,7 +9475,7 @@
         <v>11</v>
       </c>
       <c r="D506" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E506" s="4">
         <v>-6.1999999999999993</v>
@@ -9484,7 +9484,7 @@
     </row>
     <row r="507" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B507" s="2">
         <v>2009</v>
@@ -9502,7 +9502,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B508" s="3">
         <v>2009</v>
@@ -9519,7 +9519,7 @@
     </row>
     <row r="509" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B509" s="2">
         <v>2009</v>
@@ -9537,7 +9537,7 @@
     </row>
     <row r="510" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B510" s="2">
         <v>2009</v>
@@ -9546,7 +9546,7 @@
         <v>11</v>
       </c>
       <c r="D510" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E510" s="4">
         <v>-6</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="511" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B511" s="2">
         <v>2010</v>
@@ -9573,7 +9573,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B512" s="3">
         <v>2010</v>
@@ -9590,7 +9590,7 @@
     </row>
     <row r="513" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B513" s="2">
         <v>2010</v>
@@ -9608,7 +9608,7 @@
     </row>
     <row r="514" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B514" s="2">
         <v>2010</v>
@@ -9617,7 +9617,7 @@
         <v>11</v>
       </c>
       <c r="D514" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E514" s="4">
         <v>-5.9</v>
@@ -9626,7 +9626,7 @@
     </row>
     <row r="515" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B515" s="2">
         <v>2011</v>
@@ -9644,7 +9644,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B516" s="3">
         <v>2011</v>
@@ -9661,7 +9661,7 @@
     </row>
     <row r="517" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B517" s="2">
         <v>2011</v>
@@ -9679,7 +9679,7 @@
     </row>
     <row r="518" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B518" s="2">
         <v>2011</v>
@@ -9688,7 +9688,7 @@
         <v>11</v>
       </c>
       <c r="D518" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E518" s="4">
         <v>-5.8000000000000007</v>
@@ -9697,7 +9697,7 @@
     </row>
     <row r="519" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B519" s="2">
         <v>2012</v>
@@ -9715,7 +9715,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B520" s="3">
         <v>2012</v>
@@ -9732,7 +9732,7 @@
     </row>
     <row r="521" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B521" s="2">
         <v>2012</v>
@@ -9750,7 +9750,7 @@
     </row>
     <row r="522" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B522" s="2">
         <v>2012</v>
@@ -9759,7 +9759,7 @@
         <v>11</v>
       </c>
       <c r="D522" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E522" s="4">
         <v>-5.9</v>
@@ -9768,7 +9768,7 @@
     </row>
     <row r="523" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B523" s="2">
         <v>2013</v>
@@ -9786,7 +9786,7 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B524" s="3">
         <v>2013</v>
@@ -9803,7 +9803,7 @@
     </row>
     <row r="525" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B525" s="2">
         <v>2013</v>
@@ -9821,7 +9821,7 @@
     </row>
     <row r="526" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B526" s="2">
         <v>2013</v>
@@ -9830,7 +9830,7 @@
         <v>11</v>
       </c>
       <c r="D526" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E526" s="4">
         <v>-5.35</v>
@@ -9839,7 +9839,7 @@
     </row>
     <row r="527" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B527" s="2">
         <v>2013</v>
@@ -9848,7 +9848,7 @@
         <v>11</v>
       </c>
       <c r="D527" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E527" s="4">
         <v>-5.8000000000000007</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="528" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B528" s="2">
         <v>2014</v>
@@ -9875,7 +9875,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B529" s="3">
         <v>2014</v>
@@ -9892,7 +9892,7 @@
     </row>
     <row r="530" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B530" s="2">
         <v>2014</v>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="531" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B531" s="2">
         <v>2014</v>
@@ -9919,7 +9919,7 @@
         <v>11</v>
       </c>
       <c r="D531" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E531" s="4">
         <v>-5.9</v>
@@ -9928,7 +9928,7 @@
     </row>
     <row r="532" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B532" s="2">
         <v>2015</v>
@@ -9946,7 +9946,7 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B533" s="3">
         <v>2015</v>
@@ -9963,7 +9963,7 @@
     </row>
     <row r="534" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B534" s="2">
         <v>2015</v>
@@ -9981,7 +9981,7 @@
     </row>
     <row r="535" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B535" s="2">
         <v>2015</v>
@@ -9990,7 +9990,7 @@
         <v>11</v>
       </c>
       <c r="D535" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E535" s="4">
         <v>-6.1</v>
@@ -9999,7 +9999,7 @@
     </row>
     <row r="536" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B536" s="2">
         <v>2016</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B537" s="3">
         <v>2016</v>
@@ -10034,7 +10034,7 @@
     </row>
     <row r="538" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B538" s="2">
         <v>2016</v>
@@ -10052,7 +10052,7 @@
     </row>
     <row r="539" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B539" s="2">
         <v>2016</v>
@@ -10061,7 +10061,7 @@
         <v>11</v>
       </c>
       <c r="D539" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E539" s="4">
         <v>-6</v>
@@ -10070,7 +10070,7 @@
     </row>
     <row r="540" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B540" s="2">
         <v>2017</v>
@@ -10088,7 +10088,7 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B541" s="3">
         <v>2017</v>
@@ -10105,7 +10105,7 @@
     </row>
     <row r="542" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B542" s="2">
         <v>2017</v>
@@ -10114,7 +10114,7 @@
         <v>11</v>
       </c>
       <c r="D542" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E542" s="4">
         <v>-6</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="543" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B543" s="2">
         <v>2018</v>
@@ -10141,7 +10141,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B544" s="3">
         <v>2018</v>
@@ -10158,7 +10158,7 @@
     </row>
     <row r="545" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B545" s="2">
         <v>2018</v>
@@ -10167,7 +10167,7 @@
         <v>11</v>
       </c>
       <c r="D545" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E545" s="4">
         <v>-6.15</v>
@@ -10176,7 +10176,7 @@
     </row>
     <row r="546" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B546" s="2">
         <v>2019</v>
@@ -10194,7 +10194,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B547" s="3">
         <v>2019</v>
@@ -10211,7 +10211,7 @@
     </row>
     <row r="548" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B548" s="2">
         <v>2019</v>
@@ -10220,7 +10220,7 @@
         <v>11</v>
       </c>
       <c r="D548" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E548" s="4">
         <v>-6.1</v>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B549" s="3">
         <v>2020</v>
@@ -10246,7 +10246,7 @@
     </row>
     <row r="550" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B550" s="2">
         <v>2020</v>
@@ -10255,7 +10255,7 @@
         <v>11</v>
       </c>
       <c r="D550" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E550" s="4">
         <v>-5.95</v>
